--- a/Summer/国赛/q1/res/res.xlsx
+++ b/Summer/国赛/q1/res/res.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23896.15876416714</v>
+        <v>23951.34428117345</v>
       </c>
       <c r="C2" t="n">
-        <v>418.4773</v>
+        <v>417.5131</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.754193739421089</v>
+        <v>1.758244854472449</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13381.84878002368</v>
+        <v>13347.40327604005</v>
       </c>
       <c r="C3" t="n">
-        <v>747.2809</v>
+        <v>749.2094</v>
       </c>
       <c r="D3" t="n">
-        <v>2.167831837163325</v>
+        <v>2.179522692846211</v>
       </c>
       <c r="E3" t="n">
-        <v>5.241481125269282</v>
+        <v>5.250899173440879</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9049.683668307374</v>
+        <v>9045.72978234165</v>
       </c>
       <c r="C4" t="n">
-        <v>1105.011</v>
+        <v>1105.494</v>
       </c>
       <c r="D4" t="n">
-        <v>3.146191381058921</v>
+        <v>3.158401328849931</v>
       </c>
       <c r="E4" t="n">
-        <v>4.84453743540865</v>
+        <v>4.858636558433804</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6626.795447391527</v>
+        <v>6622.56041430738</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.025</v>
+        <v>1509.99</v>
       </c>
       <c r="D5" t="n">
-        <v>4.091503370757271</v>
+        <v>4.101265162672373</v>
       </c>
       <c r="E5" t="n">
-        <v>4.467226059318401</v>
+        <v>4.473862659281262</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5188.062061673607</v>
+        <v>5186.762345142727</v>
       </c>
       <c r="C6" t="n">
-        <v>1927.502</v>
+        <v>1927.985</v>
       </c>
       <c r="D6" t="n">
-        <v>5.055959776897973</v>
+        <v>5.065230788672159</v>
       </c>
       <c r="E6" t="n">
-        <v>4.231981036370081</v>
+        <v>4.237980809211854</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4259.985192291471</v>
+        <v>4208.982726755788</v>
       </c>
       <c r="C7" t="n">
-        <v>2347.426</v>
+        <v>2375.871</v>
       </c>
       <c r="D7" t="n">
-        <v>6.034952875237305</v>
+        <v>6.028871947470449</v>
       </c>
       <c r="E7" t="n">
-        <v>4.087238748855915</v>
+        <v>4.034546744155749</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3599.769038818469</v>
+        <v>3596.647492938881</v>
       </c>
       <c r="C8" t="n">
-        <v>2777.956</v>
+        <v>2780.367</v>
       </c>
       <c r="D8" t="n">
-        <v>7.016846001534233</v>
+        <v>7.024360407559555</v>
       </c>
       <c r="E8" t="n">
-        <v>3.972736381545149</v>
+        <v>3.973259419376516</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3115.32982152587</v>
+        <v>3116.73383747542</v>
       </c>
       <c r="C9" t="n">
-        <v>3209.933</v>
+        <v>3208.487</v>
       </c>
       <c r="D9" t="n">
-        <v>8.003777990298092</v>
+        <v>8.012555641189174</v>
       </c>
       <c r="E9" t="n">
-        <v>3.889514574760848</v>
+        <v>3.895284089837693</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2738.923110211527</v>
+        <v>2752.006005977907</v>
       </c>
       <c r="C10" t="n">
-        <v>3651.07</v>
+        <v>3633.713</v>
       </c>
       <c r="D10" t="n">
-        <v>8.991391910845323</v>
+        <v>9.004779024592528</v>
       </c>
       <c r="E10" t="n">
-        <v>3.816710363383875</v>
+        <v>3.840350464127447</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13313.13641784503</v>
+        <v>13321.68840144535</v>
       </c>
       <c r="C11" t="n">
-        <v>751.1378</v>
+        <v>750.6556</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9788599808474044</v>
+        <v>0.9794887729096559</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9010.364622425175</v>
+        <v>9002.545019477006</v>
       </c>
       <c r="C12" t="n">
-        <v>1109.833</v>
+        <v>1110.797</v>
       </c>
       <c r="D12" t="n">
-        <v>1.569188435009422</v>
+        <v>1.574846006213485</v>
       </c>
       <c r="E12" t="n">
-        <v>2.74165368316443</v>
+        <v>2.746764070674238</v>
       </c>
     </row>
     <row r="13">
@@ -682,10 +682,10 @@
         <v>1519.632</v>
       </c>
       <c r="D13" t="n">
-        <v>2.720759390280562</v>
+        <v>2.727823238047917</v>
       </c>
       <c r="E13" t="n">
-        <v>3.116664385924023</v>
+        <v>3.123499929998052</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5148.142961870793</v>
+        <v>5144.310778102727</v>
       </c>
       <c r="C14" t="n">
-        <v>1942.448</v>
+        <v>1943.895</v>
       </c>
       <c r="D14" t="n">
-        <v>3.784283015189619</v>
+        <v>3.790660885293228</v>
       </c>
       <c r="E14" t="n">
-        <v>3.243388239492465</v>
+        <v>3.245798650854494</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4186.89284820085</v>
+        <v>4184.359533561074</v>
       </c>
       <c r="C15" t="n">
-        <v>2388.406</v>
+        <v>2389.852</v>
       </c>
       <c r="D15" t="n">
-        <v>4.810876372329553</v>
+        <v>4.817298437874091</v>
       </c>
       <c r="E15" t="n">
-        <v>3.269852973153474</v>
+        <v>3.271826129711167</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3568.800404844718</v>
+        <v>3566.345255744402</v>
       </c>
       <c r="C16" t="n">
-        <v>2802.062</v>
+        <v>2803.991</v>
       </c>
       <c r="D16" t="n">
-        <v>5.838858733001524</v>
+        <v>5.845225925586366</v>
       </c>
       <c r="E16" t="n">
-        <v>3.326622492765113</v>
+        <v>3.327673142753206</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3082.459173598861</v>
+        <v>3085.669287839871</v>
       </c>
       <c r="C17" t="n">
-        <v>3244.163</v>
+        <v>3240.788</v>
       </c>
       <c r="D17" t="n">
-        <v>6.850016941186142</v>
+        <v>6.858017374286762</v>
       </c>
       <c r="E17" t="n">
-        <v>3.331623065912531</v>
+        <v>3.338722883749992</v>
       </c>
     </row>
     <row r="18">
@@ -777,10 +777,10 @@
         <v>3676.14</v>
       </c>
       <c r="D18" t="n">
-        <v>7.860824592678958</v>
+        <v>7.867776971999002</v>
       </c>
       <c r="E18" t="n">
-        <v>3.344469630019479</v>
+        <v>3.347250697991246</v>
       </c>
     </row>
   </sheetData>
